--- a/source_data_old/Qual_3_data.xlsx
+++ b/source_data_old/Qual_3_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madit\Desktop\UN\3 Minimum Set of Data indicators\Data Formatting\Reformat Qual 12.08\New files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7620FA5-E0A3-469A-B170-597BD9D73179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774C07DB-F434-4369-BBF9-A3C248DF24B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3195" yWindow="6135" windowWidth="10215" windowHeight="6000" xr2:uid="{6688350C-88EF-456F-BA3A-13EFDEDFE819}"/>
+    <workbookView xWindow="8400" yWindow="1500" windowWidth="12045" windowHeight="11055" xr2:uid="{6688350C-88EF-456F-BA3A-13EFDEDFE819}"/>
   </bookViews>
   <sheets>
     <sheet name="Qual_3" sheetId="2" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1873,27 +1873,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B794F3AE-62A1-4EAD-8997-0F1C9772677D}">
   <dimension ref="A1:T192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="46.5703125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1960,7 +1965,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
@@ -2022,7 +2027,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -2084,7 +2089,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -2146,7 +2151,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -2208,7 +2213,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
@@ -2270,7 +2275,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
@@ -2332,7 +2337,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -2394,7 +2399,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
@@ -2456,7 +2461,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
@@ -2518,7 +2523,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -2580,7 +2585,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -2642,7 +2647,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -2704,7 +2709,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -2766,7 +2771,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -2828,7 +2833,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
@@ -2890,7 +2895,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -2952,7 +2957,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
@@ -3014,7 +3019,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
@@ -3076,7 +3081,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
@@ -3138,7 +3143,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
@@ -3200,7 +3205,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3">
         <v>3</v>
@@ -3262,7 +3267,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -3324,7 +3329,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -3386,7 +3391,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -3448,7 +3453,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -3510,7 +3515,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -3572,7 +3577,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -3634,7 +3639,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3">
         <v>3</v>
@@ -3696,7 +3701,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -3758,7 +3763,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -3820,7 +3825,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -3882,7 +3887,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -3944,7 +3949,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
@@ -4006,7 +4011,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -4068,7 +4073,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B36" s="3">
         <v>3</v>
@@ -4130,7 +4135,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B37" s="3">
         <v>3</v>
@@ -4192,7 +4197,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
@@ -4254,7 +4259,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
@@ -4316,7 +4321,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
@@ -4378,7 +4383,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
@@ -4440,7 +4445,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
@@ -4502,7 +4507,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
@@ -4564,7 +4569,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
@@ -4626,7 +4631,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
@@ -4688,7 +4693,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
@@ -4750,7 +4755,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
@@ -4812,7 +4817,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
@@ -4874,7 +4879,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
@@ -4936,7 +4941,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
@@ -4998,7 +5003,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
@@ -5060,7 +5065,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -5122,7 +5127,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
@@ -5184,7 +5189,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B54" s="3">
         <v>3</v>
@@ -5246,7 +5251,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
@@ -5308,7 +5313,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3">
         <v>3</v>
@@ -5370,7 +5375,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3">
         <v>3</v>
@@ -5432,7 +5437,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>3</v>
@@ -5494,7 +5499,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3">
         <v>3</v>
@@ -5556,7 +5561,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B60" s="3">
         <v>3</v>
@@ -5618,7 +5623,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B61" s="3">
         <v>3</v>
@@ -5680,7 +5685,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B62" s="3">
         <v>3</v>
@@ -5742,7 +5747,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B63" s="3">
         <v>3</v>
@@ -5804,7 +5809,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B64" s="3">
         <v>3</v>
@@ -5866,7 +5871,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B65" s="3">
         <v>3</v>
@@ -5928,7 +5933,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B66" s="3">
         <v>3</v>
@@ -5990,7 +5995,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
@@ -6052,7 +6057,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
@@ -6114,7 +6119,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B69" s="3">
         <v>3</v>
@@ -6176,7 +6181,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
@@ -6238,7 +6243,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B71" s="3">
         <v>3</v>
@@ -6300,7 +6305,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B72" s="3">
         <v>3</v>
@@ -6362,7 +6367,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B73" s="3">
         <v>3</v>
@@ -6424,7 +6429,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B74" s="3">
         <v>3</v>
@@ -6486,7 +6491,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B75" s="3">
         <v>3</v>
@@ -6548,7 +6553,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B76" s="3">
         <v>3</v>
@@ -6610,7 +6615,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
@@ -6672,7 +6677,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B78" s="3">
         <v>3</v>
@@ -6734,7 +6739,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B79" s="3">
         <v>3</v>
@@ -6796,7 +6801,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B80" s="3">
         <v>3</v>
@@ -6858,7 +6863,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B81" s="3">
         <v>3</v>
@@ -6920,7 +6925,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B82" s="3">
         <v>3</v>
@@ -6982,7 +6987,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B83" s="3">
         <v>3</v>
@@ -7044,7 +7049,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B84" s="3">
         <v>3</v>
@@ -7106,7 +7111,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B85" s="3">
         <v>3</v>
@@ -7168,7 +7173,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B86" s="3">
         <v>3</v>
@@ -7230,7 +7235,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B87" s="3">
         <v>3</v>
@@ -7292,7 +7297,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B88" s="3">
         <v>3</v>
@@ -7354,7 +7359,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
@@ -7416,7 +7421,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B90" s="3">
         <v>3</v>
@@ -7478,7 +7483,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B91" s="3">
         <v>3</v>
@@ -7540,7 +7545,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B92" s="3">
         <v>3</v>
@@ -7602,7 +7607,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B93" s="3">
         <v>3</v>
@@ -7664,7 +7669,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B94" s="3">
         <v>3</v>
@@ -7726,7 +7731,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B95" s="3">
         <v>3</v>
@@ -7788,7 +7793,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B96" s="3">
         <v>3</v>
@@ -7850,7 +7855,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B97" s="3">
         <v>3</v>
@@ -7912,7 +7917,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B98" s="3">
         <v>3</v>
@@ -7974,7 +7979,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B99" s="3">
         <v>3</v>
@@ -8036,7 +8041,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B100" s="3">
         <v>3</v>
@@ -8098,7 +8103,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B101" s="3">
         <v>3</v>
@@ -8160,7 +8165,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B102" s="3">
         <v>3</v>
@@ -8222,7 +8227,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B103" s="3">
         <v>3</v>
@@ -8284,7 +8289,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B104" s="3">
         <v>3</v>
@@ -8346,7 +8351,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B105" s="3">
         <v>3</v>
@@ -8408,7 +8413,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B106" s="3">
         <v>3</v>
@@ -8470,7 +8475,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B107" s="3">
         <v>3</v>
@@ -8532,7 +8537,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B108" s="3">
         <v>3</v>
@@ -8594,7 +8599,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B109" s="3">
         <v>3</v>
@@ -8656,7 +8661,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B110" s="3">
         <v>3</v>
@@ -8718,7 +8723,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B111" s="3">
         <v>3</v>
@@ -8780,7 +8785,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B112" s="3">
         <v>3</v>
@@ -8842,7 +8847,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B113" s="3">
         <v>3</v>
@@ -8904,7 +8909,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B114" s="3">
         <v>3</v>
@@ -8966,7 +8971,7 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B115" s="3">
         <v>3</v>
@@ -9028,7 +9033,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B116" s="3">
         <v>3</v>
@@ -9090,7 +9095,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B117" s="3">
         <v>3</v>
@@ -9152,7 +9157,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B118" s="3">
         <v>3</v>
@@ -9214,7 +9219,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B119" s="3">
         <v>3</v>
@@ -9276,7 +9281,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B120" s="3">
         <v>3</v>
@@ -9338,7 +9343,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B121" s="3">
         <v>3</v>
@@ -9400,7 +9405,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B122" s="3">
         <v>3</v>
@@ -9462,7 +9467,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B123" s="3">
         <v>3</v>
@@ -9524,7 +9529,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B124" s="3">
         <v>3</v>
@@ -9586,7 +9591,7 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B125" s="3">
         <v>3</v>
@@ -9648,7 +9653,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B126" s="3">
         <v>3</v>
@@ -9710,7 +9715,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B127" s="3">
         <v>3</v>
@@ -9772,7 +9777,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B128" s="3">
         <v>3</v>
@@ -9834,7 +9839,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B129" s="3">
         <v>3</v>
@@ -9896,7 +9901,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B130" s="3">
         <v>3</v>
@@ -9958,7 +9963,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B131" s="3">
         <v>3</v>
@@ -10020,7 +10025,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B132" s="3">
         <v>3</v>
@@ -10082,7 +10087,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B133" s="3">
         <v>3</v>
@@ -10144,7 +10149,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B134" s="3">
         <v>3</v>
@@ -10206,7 +10211,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B135" s="3">
         <v>3</v>
@@ -10268,7 +10273,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B136" s="3">
         <v>3</v>
@@ -10330,7 +10335,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B137" s="3">
         <v>3</v>
@@ -10392,7 +10397,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B138" s="3">
         <v>3</v>
@@ -10454,7 +10459,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B139" s="3">
         <v>3</v>
@@ -10516,7 +10521,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B140" s="3">
         <v>3</v>
@@ -10578,7 +10583,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B141" s="3">
         <v>3</v>
@@ -10640,7 +10645,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B142" s="3">
         <v>3</v>
@@ -10702,7 +10707,7 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B143" s="3">
         <v>3</v>
@@ -10764,7 +10769,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B144" s="3">
         <v>3</v>
@@ -10826,7 +10831,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B145" s="3">
         <v>3</v>
@@ -10888,7 +10893,7 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B146" s="3">
         <v>3</v>
@@ -10950,7 +10955,7 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B147" s="3">
         <v>3</v>
@@ -11012,7 +11017,7 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B148" s="3">
         <v>3</v>
@@ -11074,7 +11079,7 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B149" s="3">
         <v>3</v>
@@ -11136,7 +11141,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B150" s="3">
         <v>3</v>
@@ -11198,7 +11203,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B151" s="3">
         <v>3</v>
@@ -11260,7 +11265,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B152" s="3">
         <v>3</v>
@@ -11322,7 +11327,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B153" s="3">
         <v>3</v>
@@ -11384,7 +11389,7 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B154" s="3">
         <v>3</v>
@@ -11446,7 +11451,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B155" s="3">
         <v>3</v>
@@ -11508,7 +11513,7 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B156" s="3">
         <v>3</v>
@@ -11570,7 +11575,7 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B157" s="3">
         <v>3</v>
@@ -11632,7 +11637,7 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B158" s="3">
         <v>3</v>
@@ -11694,7 +11699,7 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B159" s="3">
         <v>3</v>
@@ -11756,7 +11761,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B160" s="3">
         <v>3</v>
@@ -11818,7 +11823,7 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B161" s="3">
         <v>3</v>
@@ -11880,7 +11885,7 @@
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B162" s="3">
         <v>3</v>
@@ -11942,7 +11947,7 @@
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B163" s="3">
         <v>3</v>
@@ -12004,7 +12009,7 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B164" s="3">
         <v>3</v>
@@ -12066,7 +12071,7 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B165" s="3">
         <v>3</v>
@@ -12128,7 +12133,7 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B166" s="3">
         <v>3</v>
@@ -12190,7 +12195,7 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B167" s="3">
         <v>3</v>
@@ -12252,7 +12257,7 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B168" s="3">
         <v>3</v>
@@ -12314,7 +12319,7 @@
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B169" s="3">
         <v>3</v>
@@ -12376,7 +12381,7 @@
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B170" s="3">
         <v>3</v>
@@ -12438,7 +12443,7 @@
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B171" s="3">
         <v>3</v>
@@ -12500,7 +12505,7 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B172" s="3">
         <v>3</v>
@@ -12562,7 +12567,7 @@
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B173" s="3">
         <v>3</v>
@@ -12624,7 +12629,7 @@
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B174" s="3">
         <v>3</v>
@@ -12686,7 +12691,7 @@
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B175" s="3">
         <v>3</v>
@@ -12748,7 +12753,7 @@
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B176" s="3">
         <v>3</v>
@@ -12810,7 +12815,7 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B177" s="3">
         <v>3</v>
@@ -12872,7 +12877,7 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B178" s="3">
         <v>3</v>
@@ -12934,7 +12939,7 @@
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B179" s="3">
         <v>3</v>
@@ -12996,7 +13001,7 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B180" s="3">
         <v>3</v>
@@ -13058,7 +13063,7 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B181" s="3">
         <v>3</v>
@@ -13120,7 +13125,7 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B182" s="3">
         <v>3</v>
@@ -13182,7 +13187,7 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B183" s="3">
         <v>3</v>
@@ -13244,7 +13249,7 @@
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B184" s="3">
         <v>3</v>
@@ -13306,7 +13311,7 @@
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B185" s="3">
         <v>3</v>
@@ -13368,7 +13373,7 @@
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B186" s="3">
         <v>3</v>
@@ -13430,7 +13435,7 @@
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B187" s="3">
         <v>3</v>
@@ -13492,7 +13497,7 @@
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B188" s="3">
         <v>3</v>
@@ -13554,7 +13559,7 @@
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B189" s="3">
         <v>3</v>
@@ -13616,7 +13621,7 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B190" s="3">
         <v>3</v>
@@ -13678,7 +13683,7 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B191" s="3">
         <v>3</v>
@@ -13740,7 +13745,7 @@
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B192" s="3">
         <v>3</v>
@@ -13812,15 +13817,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="bb06c2696083efcbd3b6c51110ffe2bc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90e102d155a5efb6e9ff6a3a42f9bf45" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -14043,6 +14039,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14052,15 +14057,30 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932D8F1E-298D-42B2-89DB-A4AAEA83E0BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D184E5F-E574-4F42-A575-C93592937F46}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932D8F1E-298D-42B2-89DB-A4AAEA83E0BF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
